--- a/results-data/analysis/normal/analysis - normal - medium.xlsx
+++ b/results-data/analysis/normal/analysis - normal - medium.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEF0FE-ED92-43DF-8A4A-5B1CADD1D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AE9BD-8C8C-456C-A742-7F4D1547E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">random!$A$27:$L$296</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -217,14 +220,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,13 +235,13 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1074,623 +1077,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Greedu weight</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31147140657075695"/>
-          <c:y val="3.0161562837154703E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>random!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>random!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>random!$D$242:$D$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.28614521026611E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9919376373291002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8930177688598598E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB35-4202-85CB-B9BDF8382E4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>min</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(random!$E$4,random!$E$5,random!$E$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>random!$B$242:$B$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.99072265625E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9594898223876901E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9811859130859301E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB35-4202-85CB-B9BDF8382E4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>max</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>random!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>random!$C$242:$C$244</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.9740028381347604E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9549808502197196E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0182342529296797E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB35-4202-85CB-B9BDF8382E4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="315896879"/>
-        <c:axId val="315888559"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="315896879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Capacity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315888559"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="315888559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315896879"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
               <a:t>CMCM</a:t>
             </a:r>
           </a:p>
@@ -2287,414 +1673,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>random!$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.7859999999999899E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5C53-483D-9999-0B8A3B41C1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>100</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>random!$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.07477599999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5C53-483D-9999-0B8A3B41C1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>1000</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>random!$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9.31E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5C53-483D-9999-0B8A3B41C1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="197454143"/>
-        <c:axId val="197453311"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="197454143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>capacity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.6213959697789645"/>
-              <c:y val="0.89777704870224551"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197453311"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="197453311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Memory</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> usage</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="197454143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -3298,7 +2276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3915,7 +2893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4222,6 +3200,623 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0C6F-4BEA-85EA-F0D88BBAF718}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="315896879"/>
+        <c:axId val="315888559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="315896879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Capacity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315888559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="315888559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315896879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Dynamique programming top down</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31147140657075695"/>
+          <c:y val="3.0161562837154703E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$D$124:$D$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8868656158447196E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8872222900390597E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8857688903808597E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0475-4813-8E76-B7853049815C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(random!$E$4,random!$E$5,random!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$B$124:$B$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.99310684204101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.98318672180175E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9919147491455E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0475-4813-8E76-B7853049815C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>max</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$C$124:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9777240753173793E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9738368988037092E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9806575775146398E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0475-4813-8E76-B7853049815C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4567,7 +4162,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Dynamique programming top down</a:t>
+              <a:t>Dynamic programming FPTAS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4673,18 +4268,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$D$124:$D$126</c:f>
+              <c:f>random!$D$159:$D$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8868656158447196E-3</c:v>
+                  <c:v>6.5824508666992099E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8872222900390597E-3</c:v>
+                  <c:v>1.58590078353881E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8857688903808597E-3</c:v>
+                  <c:v>0.25282025337219199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,7 +4287,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0475-4813-8E76-B7853049815C}"/>
+              <c16:uniqueId val="{00000000-D0F3-47E8-B552-A0E94C53EE11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4746,18 +4341,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$B$124:$B$126</c:f>
+              <c:f>random!$B$159:$B$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.99310684204101E-3</c:v>
+                  <c:v>4.98557090759277E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.98318672180175E-3</c:v>
+                  <c:v>1.29642486572265E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9919147491455E-3</c:v>
+                  <c:v>0.2254319190979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4765,7 +4360,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0475-4813-8E76-B7853049815C}"/>
+              <c16:uniqueId val="{00000001-D0F3-47E8-B552-A0E94C53EE11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4819,18 +4414,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$C$124:$C$126</c:f>
+              <c:f>random!$C$159:$C$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.9777240753173793E-3</c:v>
+                  <c:v>7.9796314239501901E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9738368988037092E-3</c:v>
+                  <c:v>2.1940469741821199E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9806575775146398E-3</c:v>
+                  <c:v>0.30850338935852001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,7 +4433,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0475-4813-8E76-B7853049815C}"/>
+              <c16:uniqueId val="{00000002-D0F3-47E8-B552-A0E94C53EE11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5184,8 +4779,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Dynamic programming FPTAS</a:t>
+              <a:t>Genetic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> no optima</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5290,26 +4890,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$D$154:$D$156</c:f>
+              <c:f>random!$D$185:$D$187</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.5824508666992099E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.58590078353881E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25282025337219199</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0F3-47E8-B552-A0E94C53EE11}"/>
+              <c16:uniqueId val="{00000000-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5363,26 +4954,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$B$154:$B$156</c:f>
+              <c:f>random!$B$185:$B$187</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.98557090759277E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.29642486572265E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2254319190979</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D0F3-47E8-B552-A0E94C53EE11}"/>
+              <c16:uniqueId val="{00000001-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5436,26 +5018,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$C$154:$C$156</c:f>
+              <c:f>random!$C$185:$C$187</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.9796314239501901E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1940469741821199E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30850338935852001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D0F3-47E8-B552-A0E94C53EE11}"/>
+              <c16:uniqueId val="{00000002-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5801,13 +5374,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Genetic</a:t>
+              <a:t>Greedu value</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> no optima</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5912,17 +5480,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$D$183:$D$185</c:f>
+              <c:f>random!$D$212:$D$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8894653320312501E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7926912307739199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7488222122192302E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000000-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5976,17 +5553,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$B$183:$B$185</c:f>
+              <c:f>random!$B$212:$B$214</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.9909610748290998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9640197753906198E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9745101928710898E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000001-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6040,17 +5626,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$C$183:$C$185</c:f>
+              <c:f>random!$C$212:$C$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.9845447540283203E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.98723983764648E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9524307250976502E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000002-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6396,7 +5991,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Greedu value</a:t>
+              <a:t>Greedu weight</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6502,18 +6097,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$D$212:$D$214</c:f>
+              <c:f>random!$D$242:$D$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8894653320312501E-3</c:v>
+                  <c:v>5.28614521026611E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7926912307739199E-3</c:v>
+                  <c:v>3.9919376373291002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7488222122192302E-3</c:v>
+                  <c:v>3.8930177688598598E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6521,7 +6116,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000000-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6575,18 +6170,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$B$212:$B$214</c:f>
+              <c:f>random!$B$242:$B$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.9909610748290998E-3</c:v>
+                  <c:v>2.99072265625E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9640197753906198E-3</c:v>
+                  <c:v>2.9594898223876901E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9745101928710898E-3</c:v>
+                  <c:v>2.9811859130859301E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6594,7 +6189,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000001-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6648,18 +6243,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$C$212:$C$214</c:f>
+              <c:f>random!$C$242:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.9845447540283203E-3</c:v>
+                  <c:v>9.9740028381347604E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.98723983764648E-3</c:v>
+                  <c:v>5.9549808502197196E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9524307250976502E-3</c:v>
+                  <c:v>5.0182342529296797E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6667,7 +6262,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000002-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7058,46 +6653,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8450,7 +8005,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8947,511 +8502,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13123,42 +12173,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81998</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114092</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65803A35-D64F-7715-D1AD-D444E60E4EF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>521804</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -13189,7 +12203,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13227,7 +12241,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13265,7 +12279,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13273,16 +12287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603169</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>170037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297347</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>147938</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1429141</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>69497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13303,7 +12317,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13312,15 +12326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1184413</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:colOff>1083560</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>130085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2003564</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>7134</xdr:rowOff>
+      <xdr:colOff>1902711</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>29545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13341,7 +12355,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13379,7 +12393,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13417,7 +12431,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13455,7 +12469,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13493,7 +12507,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13527,8 +12541,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}" name="Tableau2911131517" displayName="Tableau2911131517" ref="C153:E156" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="C153:E156" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}" name="Tableau2911131517" displayName="Tableau2911131517" ref="C158:E161" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="C158:E161" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{37F5D141-3361-48AB-8D60-B8066322E04F}" name="max" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{5EE5423B-437C-4820-9DF4-DEE5F6EFDAE2}" name="average" dataDxfId="28"/>
@@ -13539,8 +12553,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}" name="Tableau11012141618" displayName="Tableau11012141618" ref="I153:K156" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I153:K156" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}" name="Tableau11012141618" displayName="Tableau11012141618" ref="I158:K161" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="I158:K161" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{54899AD9-A129-4289-B3BF-47F37C8225C2}" name="min"/>
     <tableColumn id="2" xr3:uid="{9F1792BC-2CF6-4CE3-8256-BDCBB2A641B5}" name="max"/>
@@ -13551,20 +12565,20 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}" name="Tableau291113151719" displayName="Tableau291113151719" ref="C182:E185" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="C182:E185" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}" name="Tableau291113151719" displayName="Tableau291113151719" ref="C184:E187" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="C184:E187" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}"/>
   <tableColumns count="3">
-    <tableColumn id="8" xr3:uid="{44CAADA5-2C70-4C5C-B7B7-CAB39E9F290D}" name="max" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{42CB536F-4566-47FC-AC0C-167F2D41F9D0}" name="average" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{D3A702A6-BC3C-40BF-81A9-6F2A89189CDD}" name="capacity" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{44CAADA5-2C70-4C5C-B7B7-CAB39E9F290D}" name="max" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{42CB536F-4566-47FC-AC0C-167F2D41F9D0}" name="average" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{D3A702A6-BC3C-40BF-81A9-6F2A89189CDD}" name="capacity" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}" name="Tableau1101214161820" displayName="Tableau1101214161820" ref="I182:K185" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="I182:K185" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}" name="Tableau1101214161820" displayName="Tableau1101214161820" ref="I184:K187" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="I184:K187" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{64AE5202-915E-48EA-9C33-50EA360E7A60}" name="min"/>
     <tableColumn id="2" xr3:uid="{547EB922-EB7C-411A-9C9B-BDBCFE83D96A}" name="max"/>
@@ -13575,19 +12589,19 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}" name="Tableau29111315171921" displayName="Tableau29111315171921" ref="C211:E214" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}" name="Tableau29111315171921" displayName="Tableau29111315171921" ref="C211:E214" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="C211:E214" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}"/>
   <tableColumns count="3">
-    <tableColumn id="8" xr3:uid="{755EBA57-E4A6-4D31-9C52-3ED1CE025EFE}" name="max" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{B2887FC5-C7DD-4371-AEDF-DBB0D117E03F}" name="average" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{8D69E659-4B7B-482B-8D91-721B55810331}" name="capacity" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{755EBA57-E4A6-4D31-9C52-3ED1CE025EFE}" name="max" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B2887FC5-C7DD-4371-AEDF-DBB0D117E03F}" name="average" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{8D69E659-4B7B-482B-8D91-721B55810331}" name="capacity" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}" name="Tableau110121416182022" displayName="Tableau110121416182022" ref="I211:K214" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}" name="Tableau110121416182022" displayName="Tableau110121416182022" ref="I211:K214" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="I211:K214" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ECDEBB0F-314F-4AFE-80F2-5CF6F35DD8AA}" name="min"/>
@@ -13599,19 +12613,19 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{A9692D9B-6557-40C4-92F6-CBABD3705B71}" name="Tableau2911131517192123" displayName="Tableau2911131517192123" ref="C241:E244" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{A9692D9B-6557-40C4-92F6-CBABD3705B71}" name="Tableau2911131517192123" displayName="Tableau2911131517192123" ref="C241:E244" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="C241:E244" xr:uid="{A9692D9B-6557-40C4-92F6-CBABD3705B71}"/>
   <tableColumns count="3">
-    <tableColumn id="8" xr3:uid="{D96F9A25-C55D-45E2-8796-A99020AAD46F}" name="max" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8E797AB7-000F-48A2-9B01-CA5ABC6B7F73}" name="average" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{B5DE6EE4-A9FE-407C-9339-DBA0D6DD1B39}" name="capacity" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{D96F9A25-C55D-45E2-8796-A99020AAD46F}" name="max" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8E797AB7-000F-48A2-9B01-CA5ABC6B7F73}" name="average" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{B5DE6EE4-A9FE-407C-9339-DBA0D6DD1B39}" name="capacity" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4F7052A4-F419-4B83-B448-62A0D50F2F02}" name="Tableau11012141618202224" displayName="Tableau11012141618202224" ref="I241:K244" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{4F7052A4-F419-4B83-B448-62A0D50F2F02}" name="Tableau11012141618202224" displayName="Tableau11012141618202224" ref="I241:K244" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="I241:K244" xr:uid="{4F7052A4-F419-4B83-B448-62A0D50F2F02}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A46DBF74-E7BF-4329-8AE1-9BB58ACD32BD}" name="min"/>
@@ -13623,12 +12637,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{5E1BAF1A-465E-4A02-87E5-A170CF4E64FE}" name="Tableau291113151719212325" displayName="Tableau291113151719212325" ref="C272:E275" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{5E1BAF1A-465E-4A02-87E5-A170CF4E64FE}" name="Tableau291113151719212325" displayName="Tableau291113151719212325" ref="C272:E275" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="C272:E275" xr:uid="{5E1BAF1A-465E-4A02-87E5-A170CF4E64FE}"/>
   <tableColumns count="3">
-    <tableColumn id="8" xr3:uid="{7D8A97EB-1520-4A32-A1E4-ADDE429D3BB4}" name="max" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3E687349-29B9-4DF0-9824-6B721327C48E}" name="average" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{684BC2FA-97B0-4F04-8B08-EF9595982EF2}" name="capacity" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7D8A97EB-1520-4A32-A1E4-ADDE429D3BB4}" name="max" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3E687349-29B9-4DF0-9824-6B721327C48E}" name="average" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{684BC2FA-97B0-4F04-8B08-EF9595982EF2}" name="capacity" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13647,12 +12661,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{C90B252E-7809-45DF-9984-9DC5B98E18F9}" name="Tableau1101214161820222426" displayName="Tableau1101214161820222426" ref="I272:K275" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{C90B252E-7809-45DF-9984-9DC5B98E18F9}" name="Tableau1101214161820222426" displayName="Tableau1101214161820222426" ref="I272:K275" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="I272:K275" xr:uid="{C90B252E-7809-45DF-9984-9DC5B98E18F9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D36E8045-AC15-486D-882E-13F3A851D28B}" name="min" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D36E8045-AC15-486D-882E-13F3A851D28B}" name="min" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{57C6DB9D-A245-4847-9C7E-688C47F23B44}" name="max"/>
-    <tableColumn id="3" xr3:uid="{0FC06EA3-ABCB-4F43-9149-A05D391A4E6B}" name="average" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0FC06EA3-ABCB-4F43-9149-A05D391A4E6B}" name="average" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14063,10 +13077,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:L275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J279" sqref="J279"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14083,18 +13100,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -14204,56 +13221,56 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="1"/>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -14358,56 +13375,56 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="1"/>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
@@ -14512,56 +13529,56 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="1"/>
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -14666,56 +13683,56 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
       <c r="F122" s="1"/>
-      <c r="I122" s="18" t="s">
+      <c r="I122" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -14819,260 +13836,241 @@
         <v>7.0619199999999993E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B148" s="16" t="s">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="16"/>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="16"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="16"/>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="1"/>
-      <c r="I152" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B154" s="9">
-        <v>4.98557090759277E-3</v>
-      </c>
-      <c r="C154" s="5">
-        <v>7.9796314239501901E-3</v>
-      </c>
-      <c r="D154" s="5">
-        <v>6.5824508666992099E-3</v>
-      </c>
-      <c r="E154" s="5">
-        <v>10</v>
-      </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="2">
-        <v>10</v>
-      </c>
-      <c r="I154" s="6">
-        <v>4.0439999999999999E-3</v>
-      </c>
-      <c r="J154">
-        <v>1.09319999999999E-2</v>
-      </c>
-      <c r="K154" s="6">
-        <v>4.7898999999999902E-3</v>
-      </c>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="12">
-        <v>1.29642486572265E-2</v>
-      </c>
-      <c r="C155" s="5">
-        <v>2.1940469741821199E-2</v>
-      </c>
-      <c r="D155" s="5">
-        <v>1.58590078353881E-2</v>
-      </c>
-      <c r="E155" s="5">
-        <v>100</v>
-      </c>
-      <c r="F155" s="1"/>
-      <c r="I155" s="6">
-        <v>3.852E-3</v>
-      </c>
-      <c r="J155">
-        <v>1.1349E-2</v>
-      </c>
-      <c r="K155">
-        <v>5.46569999999999E-3</v>
-      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
       <c r="L155" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B156" s="9">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="1"/>
+      <c r="I157" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="9">
+        <v>4.98557090759277E-3</v>
+      </c>
+      <c r="C159" s="5">
+        <v>7.9796314239501901E-3</v>
+      </c>
+      <c r="D159" s="5">
+        <v>6.5824508666992099E-3</v>
+      </c>
+      <c r="E159" s="5">
+        <v>10</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="2">
+        <v>10</v>
+      </c>
+      <c r="I159" s="6">
+        <v>4.0439999999999999E-3</v>
+      </c>
+      <c r="J159">
+        <v>1.09319999999999E-2</v>
+      </c>
+      <c r="K159" s="6">
+        <v>4.7898999999999902E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="12">
+        <v>1.29642486572265E-2</v>
+      </c>
+      <c r="C160" s="5">
+        <v>2.1940469741821199E-2</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1.58590078353881E-2</v>
+      </c>
+      <c r="E160" s="5">
+        <v>100</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="I160" s="6">
+        <v>3.852E-3</v>
+      </c>
+      <c r="J160">
+        <v>1.1349E-2</v>
+      </c>
+      <c r="K160">
+        <v>5.46569999999999E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="9">
         <v>0.2254319190979</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C161" s="5">
         <v>0.30850338935852001</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D161" s="5">
         <v>0.25282025337219199</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E161" s="5">
         <v>1000</v>
       </c>
-      <c r="F156" s="1"/>
-      <c r="I156" s="6">
+      <c r="F161" s="1"/>
+      <c r="I161" s="6">
         <v>5.0359999999999997E-3</v>
       </c>
-      <c r="J156">
+      <c r="J161">
         <v>1.0468E-2</v>
       </c>
-      <c r="K156" s="6">
+      <c r="K161" s="6">
         <v>6.4117999999999996E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="16" t="s">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="16"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="16"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="16"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="16"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="16"/>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="16"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="1"/>
-      <c r="I181" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
       <c r="J181" s="18"/>
       <c r="K181" s="18"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="1"/>
-      <c r="G182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I182" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K182" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="9"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="B183" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="2">
-        <v>10</v>
-      </c>
-      <c r="I183" s="6"/>
-      <c r="K183" s="6"/>
+      <c r="I183" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="10"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
+      <c r="B184" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F184" s="1"/>
+      <c r="G184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
@@ -15080,60 +14078,79 @@
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="1"/>
+      <c r="G185" s="2">
+        <v>10</v>
+      </c>
       <c r="I185" s="6"/>
       <c r="K185" s="6"/>
     </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="10"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="9"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="1"/>
+      <c r="I187" s="6"/>
+      <c r="K187" s="6"/>
+    </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="16"/>
-      <c r="J206" s="16"/>
-      <c r="K206" s="16"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="16"/>
-      <c r="J207" s="16"/>
-      <c r="K207" s="16"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="18"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="16"/>
-      <c r="C208" s="16"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="16"/>
-      <c r="J208" s="16"/>
-      <c r="K208" s="16"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="17" t="s">
+      <c r="B210" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
       <c r="F210" s="1"/>
-      <c r="I210" s="18" t="s">
+      <c r="I210" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J210" s="18"/>
-      <c r="K210" s="18"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
@@ -15238,56 +14255,56 @@
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="16"/>
-      <c r="J236" s="16"/>
-      <c r="K236" s="16"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="18"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="16"/>
-      <c r="J237" s="16"/>
-      <c r="K237" s="16"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="18"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="16"/>
-      <c r="J238" s="16"/>
-      <c r="K238" s="16"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="18"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="17"/>
-      <c r="D240" s="17"/>
-      <c r="E240" s="17"/>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
       <c r="F240" s="1"/>
-      <c r="I240" s="18" t="s">
+      <c r="I240" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J240" s="18"/>
-      <c r="K240" s="18"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
@@ -15392,56 +14409,56 @@
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
-      <c r="K267" s="16"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="18"/>
+      <c r="H267" s="18"/>
+      <c r="I267" s="18"/>
+      <c r="J267" s="18"/>
+      <c r="K267" s="18"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="16"/>
-      <c r="C268" s="16"/>
-      <c r="D268" s="16"/>
-      <c r="E268" s="16"/>
-      <c r="F268" s="16"/>
-      <c r="G268" s="16"/>
-      <c r="H268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
-      <c r="K268" s="16"/>
+      <c r="B268" s="18"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="18"/>
+      <c r="H268" s="18"/>
+      <c r="I268" s="18"/>
+      <c r="J268" s="18"/>
+      <c r="K268" s="18"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="16"/>
-      <c r="G269" s="16"/>
-      <c r="H269" s="16"/>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-      <c r="K269" s="16"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="18"/>
+      <c r="J269" s="18"/>
+      <c r="K269" s="18"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="17"/>
-      <c r="D271" s="17"/>
-      <c r="E271" s="17"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
       <c r="F271" s="1"/>
-      <c r="I271" s="18" t="s">
+      <c r="I271" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="18"/>
-      <c r="K271" s="18"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="17"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="3" t="s">
@@ -15547,39 +14564,39 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B236:K238"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="I240:K240"/>
+    <mergeCell ref="B267:K269"/>
+    <mergeCell ref="B271:E271"/>
+    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B180:K182"/>
+    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="I183:K183"/>
+    <mergeCell ref="B206:K208"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
+    <mergeCell ref="B118:K120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B153:K155"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="I157:K157"/>
     <mergeCell ref="B58:K60"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="B89:K91"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B118:K120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B148:K150"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I152:K152"/>
-    <mergeCell ref="B177:K179"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B236:K238"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="I240:K240"/>
-    <mergeCell ref="B267:K269"/>
-    <mergeCell ref="B271:E271"/>
-    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B28:K30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="20">
     <tablePart r:id="rId3"/>

--- a/results-data/analysis/normal/analysis - normal - medium.xlsx
+++ b/results-data/analysis/normal/analysis - normal - medium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AE9BD-8C8C-456C-A742-7F4D1547E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A2AEA-0D51-46FF-975D-C1FC3DBE3718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,55 +179,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13082,8 +13062,8 @@
   </sheetPr>
   <dimension ref="B2:L275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13100,61 +13080,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="1"/>
-      <c r="I2" s="17" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>9.9396705627441406E-4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3.9994716644287101E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.8676805496215801E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>100</v>
       </c>
       <c r="I4">
@@ -13163,24 +13140,23 @@
       <c r="J4">
         <v>5.71E-4</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>2.7859999999999899E-5</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>2.9916763305664002E-3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5.9854984283447196E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4.4878959655761698E-3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="I5">
         <v>0</v>
       </c>
@@ -13192,26 +13168,25 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>9.4733238220214792E-3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1.5957355499267498E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.11205577850341E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6">
         <v>5.71E-4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>9.31E-5</v>
       </c>
     </row>
@@ -13221,587 +13196,568 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="1"/>
-      <c r="I32" s="17" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="5">
         <v>6.9789886474609297E-3</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="3">
         <v>2.09429264068603E-2</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>1.2067365646362301E-2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>10</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>100</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
         <v>4.96E-3</v>
       </c>
       <c r="J34">
         <v>6.4319999999999898E-3</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="4">
         <v>5.1071999999999897E-3</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>3.9610862731933498E-3</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="3">
         <v>7.9803466796875E-3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>4.9854278564453102E-3</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="I35" s="6">
+      <c r="I35" s="4">
         <v>4.8960000000000002E-3</v>
       </c>
       <c r="J35">
         <v>5.888E-3</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="4">
         <v>4.9952E-3</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="B36" s="5">
         <v>6.0186386108398403E-3</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>9.9830627441406198E-3</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>7.8798055648803701E-3</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>1000</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="I36" s="6">
+      <c r="I36" s="4">
         <v>5.012E-3</v>
       </c>
       <c r="J36">
         <v>6.4839999999999898E-3</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="4">
         <v>5.1592000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="1"/>
-      <c r="I62" s="17" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="I62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J63" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="9">
+      <c r="B64" s="5">
         <v>0</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>9.9396705627441406E-4</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="8">
         <v>9.9396705627441401E-5</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="3">
         <v>10</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>100</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="4">
         <v>2.2079999999999999E-3</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="4">
         <v>1.19999999999999E-4</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="4">
         <v>1.1519999999999901E-4</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="10">
+      <c r="B65" s="6">
         <v>0</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>1.0015964508056599E-3</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="8">
         <v>1.0015964508056601E-4</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="3">
         <v>100</v>
       </c>
-      <c r="F65" s="1"/>
       <c r="I65">
         <v>2.2079999999999999E-3</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="4">
         <v>1.19999999999999E-4</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="4">
         <v>1.1519999999999901E-4</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="9">
+      <c r="B66" s="5">
         <v>0</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>1.0266304016113201E-3</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="8">
         <v>1.02663040161132E-4</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="I66" s="6">
+      <c r="I66" s="4">
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="J66">
         <v>1.19999999999999E-4</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="4">
         <v>1.1519999999999901E-4</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="1"/>
-      <c r="I93" s="17" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="I93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J94" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="9">
+      <c r="B95" s="5">
         <v>9.9062919616699197E-4</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="3">
         <v>3.9927959442138602E-3</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="3">
         <v>2.3941755294799799E-3</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="3">
         <v>10</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="2">
+      <c r="G95" s="1">
         <v>100</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="4">
         <v>1.232E-3</v>
       </c>
       <c r="J95">
         <v>4.4799999999999996E-3</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="4">
         <v>1.5679999999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
+      <c r="B96" s="7">
         <v>8.9755058288574201E-3</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="3">
         <v>1.49605274200439E-2</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="3">
         <v>1.1925530433654701E-2</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="1"/>
       <c r="I96">
         <v>1.232E-3</v>
       </c>
       <c r="J96">
         <v>4.4799999999999996E-3</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="4">
         <v>1.6419E-3</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="9">
+      <c r="B97" s="5">
         <v>0.25580358505249001</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>0.486736059188842</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>0.301710271835327</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="3">
         <v>1000</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="I97" s="6">
+      <c r="I97" s="4">
         <v>1.665E-3</v>
       </c>
       <c r="J97">
         <v>5.0229999999999997E-3</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="4">
         <v>3.3170999999999999E-3</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="1"/>
-      <c r="I122" s="17" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="I122" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="5" t="s">
+      <c r="J123" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K123" s="5" t="s">
+      <c r="K123" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="9">
+      <c r="B124" s="5">
         <v>2.99310684204101E-3</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="3">
         <v>7.9777240753173793E-3</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="3">
         <v>4.8868656158447196E-3</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="3">
         <v>10</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="2">
+      <c r="G124" s="1">
         <v>100</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="4">
         <v>4.6391999999999899E-2</v>
       </c>
       <c r="J124">
         <v>9.3207999999999999E-2</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K124" s="4">
         <v>7.4482399999999893E-2</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="12">
+      <c r="B125" s="7">
         <v>4.98318672180175E-3</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="3">
         <v>8.9738368988037092E-3</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="3">
         <v>5.8872222900390597E-3</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="3">
         <v>100</v>
       </c>
-      <c r="F125" s="1"/>
       <c r="I125">
         <v>4.2807999999999999E-2</v>
       </c>
@@ -13813,153 +13769,148 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="9">
+      <c r="B126" s="5">
         <v>2.9919147491455E-3</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="3">
         <v>6.9806575775146398E-3</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="3">
         <v>4.8857688903808597E-3</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="3">
         <v>1000</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="I126" s="6">
+      <c r="I126" s="4">
         <v>4.2248000000000001E-2</v>
       </c>
       <c r="J126">
         <v>0.10228</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="4">
         <v>7.0619199999999993E-2</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
       <c r="L155" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="1"/>
-      <c r="I157" s="17" t="s">
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="I157" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="2" t="s">
+      <c r="G158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J158" s="5" t="s">
+      <c r="J158" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K158" s="5" t="s">
+      <c r="K158" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B159" s="9">
+      <c r="B159" s="5">
         <v>4.98557090759277E-3</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="3">
         <v>7.9796314239501901E-3</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="3">
         <v>6.5824508666992099E-3</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="3">
         <v>10</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="2">
+      <c r="G159" s="1">
         <v>10</v>
       </c>
-      <c r="I159" s="6">
+      <c r="I159" s="4">
         <v>4.0439999999999999E-3</v>
       </c>
       <c r="J159">
         <v>1.09319999999999E-2</v>
       </c>
-      <c r="K159" s="6">
+      <c r="K159" s="4">
         <v>4.7898999999999902E-3</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B160" s="12">
+      <c r="B160" s="7">
         <v>1.29642486572265E-2</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="3">
         <v>2.1940469741821199E-2</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="3">
         <v>1.58590078353881E-2</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="3">
         <v>100</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="I160" s="6">
+      <c r="I160" s="4">
         <v>3.852E-3</v>
       </c>
       <c r="J160">
@@ -13970,629 +13921,608 @@
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="9">
+      <c r="B161" s="5">
         <v>0.2254319190979</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="3">
         <v>0.30850338935852001</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="3">
         <v>0.25282025337219199</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="3">
         <v>1000</v>
       </c>
-      <c r="F161" s="1"/>
-      <c r="I161" s="6">
+      <c r="I161" s="4">
         <v>5.0359999999999997E-3</v>
       </c>
       <c r="J161">
         <v>1.0468E-2</v>
       </c>
-      <c r="K161" s="6">
+      <c r="K161" s="4">
         <v>6.4117999999999996E-3</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
-      <c r="I182" s="18"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="18"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="1"/>
-      <c r="I183" s="17" t="s">
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="I183" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F184" s="1"/>
-      <c r="G184" s="2" t="s">
+      <c r="G184" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="I184" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J184" s="5" t="s">
+      <c r="J184" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K184" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="9"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="2">
+      <c r="B185" s="5"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="G185" s="1">
         <v>10</v>
       </c>
-      <c r="I185" s="6"/>
-      <c r="K185" s="6"/>
+      <c r="I185" s="4"/>
+      <c r="K185" s="4"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="10"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="1"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="9"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="1"/>
-      <c r="I187" s="6"/>
-      <c r="K187" s="6"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="I187" s="4"/>
+      <c r="K187" s="4"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-      <c r="J206" s="18"/>
-      <c r="K206" s="18"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
-      <c r="I207" s="18"/>
-      <c r="J207" s="18"/>
-      <c r="K207" s="18"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
-      <c r="I208" s="18"/>
-      <c r="J208" s="18"/>
-      <c r="K208" s="18"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="1"/>
-      <c r="I210" s="17" t="s">
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="I210" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J210" s="17"/>
-      <c r="K210" s="17"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D211" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E211" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F211" s="1"/>
-      <c r="G211" s="2" t="s">
+      <c r="G211" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I211" s="5" t="s">
+      <c r="I211" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J211" s="5" t="s">
+      <c r="J211" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K211" s="5" t="s">
+      <c r="K211" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="9">
+      <c r="B212" s="5">
         <v>2.9909610748290998E-3</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="3">
         <v>5.9845447540283203E-3</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="3">
         <v>3.8894653320312501E-3</v>
       </c>
-      <c r="E212" s="5">
+      <c r="E212" s="3">
         <v>10</v>
       </c>
-      <c r="F212" s="1"/>
-      <c r="G212" s="2">
+      <c r="G212" s="1">
         <v>100</v>
       </c>
-      <c r="I212" s="6">
+      <c r="I212" s="4">
         <v>2.6719999999999999E-3</v>
       </c>
       <c r="J212">
         <v>5.3759999999999997E-3</v>
       </c>
-      <c r="K212" s="6">
+      <c r="K212" s="4">
         <v>2.9424E-3</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="12">
+      <c r="B213" s="7">
         <v>2.9640197753906198E-3</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C213" s="3">
         <v>4.98723983764648E-3</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="3">
         <v>3.7926912307739199E-3</v>
       </c>
-      <c r="E213" s="5">
+      <c r="E213" s="3">
         <v>100</v>
       </c>
-      <c r="F213" s="1"/>
       <c r="I213">
         <v>2.6719999999999999E-3</v>
       </c>
       <c r="J213">
         <v>1.47649999999999E-2</v>
       </c>
-      <c r="K213" s="6">
+      <c r="K213" s="4">
         <v>4.1421000000000001E-3</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="9">
+      <c r="B214" s="5">
         <v>2.9745101928710898E-3</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="3">
         <v>4.9524307250976502E-3</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="3">
         <v>3.7488222122192302E-3</v>
       </c>
-      <c r="E214" s="5">
+      <c r="E214" s="3">
         <v>1000</v>
       </c>
-      <c r="F214" s="1"/>
-      <c r="I214" s="6">
+      <c r="I214" s="4">
         <v>2.6719999999999999E-3</v>
       </c>
       <c r="J214">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="K214" s="6">
+      <c r="K214" s="4">
         <v>2.9248E-3</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="18" t="s">
+      <c r="B236" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
-      <c r="H236" s="18"/>
-      <c r="I236" s="18"/>
-      <c r="J236" s="18"/>
-      <c r="K236" s="18"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="18"/>
-      <c r="G237" s="18"/>
-      <c r="H237" s="18"/>
-      <c r="I237" s="18"/>
-      <c r="J237" s="18"/>
-      <c r="K237" s="18"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
-      <c r="D238" s="18"/>
-      <c r="E238" s="18"/>
-      <c r="F238" s="18"/>
-      <c r="G238" s="18"/>
-      <c r="H238" s="18"/>
-      <c r="I238" s="18"/>
-      <c r="J238" s="18"/>
-      <c r="K238" s="18"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="16"/>
-      <c r="D240" s="16"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="1"/>
-      <c r="I240" s="17" t="s">
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="I240" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J240" s="17"/>
-      <c r="K240" s="17"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D241" s="4" t="s">
+      <c r="D241" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E241" s="4" t="s">
+      <c r="E241" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F241" s="1"/>
-      <c r="G241" s="2" t="s">
+      <c r="G241" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I241" s="5" t="s">
+      <c r="I241" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J241" s="5" t="s">
+      <c r="J241" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K241" s="5" t="s">
+      <c r="K241" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="14">
+      <c r="B242" s="5">
         <v>2.99072265625E-3</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C242" s="3">
         <v>9.9740028381347604E-3</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="3">
         <v>5.28614521026611E-3</v>
       </c>
-      <c r="E242" s="5">
+      <c r="E242" s="3">
         <v>10</v>
       </c>
-      <c r="F242" s="1"/>
-      <c r="G242" s="2">
+      <c r="G242" s="1">
         <v>10</v>
       </c>
-      <c r="I242" s="6">
+      <c r="I242" s="4">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J242" s="15">
+      <c r="J242">
         <v>4.1440000000000001E-3</v>
       </c>
-      <c r="K242" s="15">
+      <c r="K242">
         <v>2.8192E-3</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="12">
+      <c r="B243" s="7">
         <v>2.9594898223876901E-3</v>
       </c>
-      <c r="C243" s="11">
+      <c r="C243" s="3">
         <v>5.9549808502197196E-3</v>
       </c>
-      <c r="D243" s="11">
+      <c r="D243" s="3">
         <v>3.9919376373291002E-3</v>
       </c>
-      <c r="E243" s="5">
+      <c r="E243" s="3">
         <v>100</v>
       </c>
-      <c r="F243" s="1"/>
-      <c r="I243" s="6">
+      <c r="I243" s="4">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J243" s="15">
+      <c r="J243">
         <v>3.1839999999999898E-3</v>
       </c>
-      <c r="K243" s="6">
+      <c r="K243" s="4">
         <v>2.7231999999999998E-3</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="14">
+      <c r="B244" s="5">
         <v>2.9811859130859301E-3</v>
       </c>
-      <c r="C244" s="11">
+      <c r="C244" s="3">
         <v>5.0182342529296797E-3</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="3">
         <v>3.8930177688598598E-3</v>
       </c>
-      <c r="E244" s="5">
+      <c r="E244" s="3">
         <v>1000</v>
       </c>
-      <c r="F244" s="1"/>
-      <c r="I244" s="6">
+      <c r="I244" s="4">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J244" s="15">
+      <c r="J244">
         <v>4.1440000000000001E-3</v>
       </c>
-      <c r="K244" s="6">
+      <c r="K244" s="4">
         <v>2.8701999999999998E-3</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="18" t="s">
+      <c r="B267" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="18"/>
-      <c r="F267" s="18"/>
-      <c r="G267" s="18"/>
-      <c r="H267" s="18"/>
-      <c r="I267" s="18"/>
-      <c r="J267" s="18"/>
-      <c r="K267" s="18"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="18"/>
-      <c r="F268" s="18"/>
-      <c r="G268" s="18"/>
-      <c r="H268" s="18"/>
-      <c r="I268" s="18"/>
-      <c r="J268" s="18"/>
-      <c r="K268" s="18"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
-      <c r="H269" s="18"/>
-      <c r="I269" s="18"/>
-      <c r="J269" s="18"/>
-      <c r="K269" s="18"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="9"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="16"/>
-      <c r="D271" s="16"/>
-      <c r="E271" s="16"/>
-      <c r="F271" s="1"/>
-      <c r="I271" s="17" t="s">
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="I271" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="17"/>
-      <c r="K271" s="17"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D272" s="4" t="s">
+      <c r="D272" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E272" s="4" t="s">
+      <c r="E272" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F272" s="1"/>
-      <c r="G272" s="2" t="s">
+      <c r="G272" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I272" s="5" t="s">
+      <c r="I272" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J272" s="5" t="s">
+      <c r="J272" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K272" s="5" t="s">
+      <c r="K272" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B273" s="14">
+      <c r="B273" s="5">
         <v>9.908676147460931E-4</v>
       </c>
-      <c r="C273" s="11">
+      <c r="C273" s="3">
         <v>1.9991397857665998E-3</v>
       </c>
-      <c r="D273" s="13">
+      <c r="D273" s="8">
         <v>1.29597187042236E-3</v>
       </c>
-      <c r="E273" s="5">
+      <c r="E273" s="3">
         <v>10</v>
       </c>
-      <c r="F273" s="1"/>
-      <c r="G273" s="2">
+      <c r="G273" s="1">
         <v>10</v>
       </c>
-      <c r="I273" s="6">
+      <c r="I273" s="4">
         <v>0</v>
       </c>
-      <c r="J273" s="6">
+      <c r="J273" s="4">
         <v>0</v>
       </c>
-      <c r="K273" s="6">
+      <c r="K273" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="12">
+      <c r="B274" s="7">
         <v>2.9780864715576098E-3</v>
       </c>
-      <c r="C274" s="11">
+      <c r="C274" s="3">
         <v>5.9845447540283203E-3</v>
       </c>
-      <c r="D274" s="13">
+      <c r="D274" s="8">
         <v>4.0943622589111302E-3</v>
       </c>
-      <c r="E274" s="5">
+      <c r="E274" s="3">
         <v>100</v>
       </c>
-      <c r="F274" s="1"/>
-      <c r="I274" s="6">
+      <c r="I274" s="4">
         <v>0</v>
       </c>
-      <c r="J274" s="6">
+      <c r="J274" s="4">
         <v>0</v>
       </c>
-      <c r="K274" s="6">
+      <c r="K274" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="14">
+      <c r="B275" s="5">
         <v>2.98833847045898E-3</v>
       </c>
-      <c r="C275" s="11">
+      <c r="C275" s="3">
         <v>3.9858818054199201E-3</v>
       </c>
-      <c r="D275" s="13">
+      <c r="D275" s="8">
         <v>3.2900094985961899E-3</v>
       </c>
-      <c r="E275" s="5">
+      <c r="E275" s="3">
         <v>1000</v>
       </c>
-      <c r="F275" s="1"/>
-      <c r="I275" s="6">
+      <c r="I275" s="4">
         <v>2.8E-5</v>
       </c>
-      <c r="J275" s="6">
+      <c r="J275" s="4">
         <v>2.8E-5</v>
       </c>
-      <c r="K275" s="6">
+      <c r="K275" s="4">
         <v>2.7999999999999901E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B58:K60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="B89:K91"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="B118:K120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B153:K155"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="B180:K182"/>
+    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="I183:K183"/>
+    <mergeCell ref="B206:K208"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
     <mergeCell ref="B236:K238"/>
     <mergeCell ref="B240:E240"/>
     <mergeCell ref="I240:K240"/>
     <mergeCell ref="B267:K269"/>
     <mergeCell ref="B271:E271"/>
     <mergeCell ref="I271:K271"/>
-    <mergeCell ref="B180:K182"/>
-    <mergeCell ref="B183:E183"/>
-    <mergeCell ref="I183:K183"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B118:K120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B153:K155"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="B58:K60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="B89:K91"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
